--- a/DATA_goal/Junction_Flooding_243.xlsx
+++ b/DATA_goal/Junction_Flooding_243.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41675.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.22</v>
+        <v>2.12</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>111.63</v>
+        <v>11.16</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.5</v>
+        <v>2.15</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41675.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.85</v>
+        <v>3.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.65</v>
+        <v>2.87</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>46.97</v>
+        <v>4.7</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.95</v>
+        <v>1.99</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.15</v>
+        <v>0.42</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>189.53</v>
+        <v>18.95</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.12</v>
+        <v>3.61</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.89</v>
+        <v>2.39</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.4</v>
+        <v>2.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.08</v>
+        <v>4.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41675.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.15</v>
+        <v>2.11</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q4" s="4" t="n">
         <v>1.42</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>46.36</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>37.66</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>64.14</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>25.77</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>23.62</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>14.22</v>
-      </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>246.77</v>
+        <v>24.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.68</v>
+        <v>4.67</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.22</v>
+        <v>3.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.02</v>
+        <v>3.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>58.51</v>
+        <v>5.85</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41675.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q5" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>33.84</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>27.47</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>10.39</v>
-      </c>
       <c r="R5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>178.1</v>
+        <v>17.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.12</v>
+        <v>3.41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.81</v>
+        <v>2.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.16</v>
+        <v>2.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41675.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>1.07</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>42.63</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>59.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.69</v>
-      </c>
       <c r="K6" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.77</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>226.16</v>
+        <v>22.62</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>42.89</v>
+        <v>4.29</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>28.81</v>
+        <v>2.88</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>29.36</v>
+        <v>2.94</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>54.15</v>
+        <v>5.41</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41675.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>26.48</v>
+        <v>2.65</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>78.54000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41675.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>36.15</v>
+        <v>3.62</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>29.6</v>
+        <v>2.96</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>48.68</v>
+        <v>4.87</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>190.67</v>
+        <v>19.07</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>36.31</v>
+        <v>3.63</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>24.42</v>
+        <v>2.44</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>24.15</v>
+        <v>2.42</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>44.08</v>
+        <v>4.41</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41675.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.35</v>
+        <v>4.54</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.24</v>
+        <v>3.72</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>63.07</v>
+        <v>6.31</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.21</v>
+        <v>2.52</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.32</v>
+        <v>1.93</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.23</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>241.04</v>
+        <v>24.1</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>45.63</v>
+        <v>4.56</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.76</v>
+        <v>3.08</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.15</v>
+        <v>1.62</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.07</v>
+        <v>3.11</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>57.35</v>
+        <v>5.74</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41675.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.35</v>
+        <v>0.63</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>30.3</v>
+        <v>3.03</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>94.56</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>14.45</v>
+        <v>1.44</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>7.85</v>
+        <v>0.79</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>27.84</v>
+        <v>2.78</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_243.xlsx
+++ b/DATA_goal/Junction_Flooding_243.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41675.34027777778</v>
+        <v>44924.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>0.96</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.15</v>
-      </c>
       <c r="V2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.19</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.9</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41675.34722222222</v>
+        <v>44924.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.58</v>
+        <v>3.94</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.87</v>
+        <v>3.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.7</v>
+        <v>4.96</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q3" s="4" t="n">
+      <c r="W3" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB3" s="4" t="n">
         <v>1.13</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.95</v>
-      </c>
       <c r="AC3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.31</v>
+        <v>4.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41675.35416666666</v>
+        <v>44924.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.43</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.64</v>
+        <v>1.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.77</v>
+        <v>0.98</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.65</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.41</v>
+        <v>2.07</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.58</v>
+        <v>0.6</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U4" s="4" t="n">
         <v>1.16</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>24.68</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.67</v>
-      </c>
       <c r="V4" s="4" t="n">
-        <v>1.54</v>
+        <v>0.36</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.12</v>
+        <v>0.78</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.64</v>
+        <v>0.44</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.5</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.85</v>
+        <v>1.88</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.24</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.93</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41675.36111111111</v>
+        <v>44924.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.54</v>
+        <v>2.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.38</v>
+        <v>4.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.75</v>
+        <v>3.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.93</v>
+        <v>6.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.88</v>
+        <v>2.59</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.72</v>
+        <v>2.41</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.81</v>
+        <v>25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.41</v>
+        <v>4.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.28</v>
+        <v>3.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.42</v>
+        <v>3.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.99</v>
+        <v>1.35</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.5</v>
+        <v>5.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41675.36805555555</v>
+        <v>44924.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.95</v>
+        <v>24.13</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.46</v>
+        <v>18.2</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.26</v>
+        <v>52.12</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.48</v>
+        <v>43.41</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.52</v>
+        <v>18.79</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.96</v>
+        <v>73.39</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.37</v>
+        <v>28.89</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.07</v>
+        <v>13.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.55</v>
+        <v>19.65</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.71</v>
+        <v>21.02</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.82</v>
+        <v>22.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.49</v>
+        <v>6.02</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.53</v>
+        <v>18.7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.18</v>
+        <v>26.87</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.3</v>
+        <v>15.55</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.62</v>
+        <v>278.68</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.29</v>
+        <v>52.39</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.42</v>
+        <v>17.23</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.88</v>
+        <v>35.48</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.51</v>
+        <v>18.83</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>2.47</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.94</v>
+        <v>36.26</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.25</v>
+        <v>15.07</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.11</v>
+        <v>13.85</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.3</v>
+        <v>15.68</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.8</v>
+        <v>22.12</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.41</v>
+        <v>66.42</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.79</v>
+        <v>10.02</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41675.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41675.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41675.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41675.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41675.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>29.06</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>103.68</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.42</v>
+        <v>21.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_243.xlsx
+++ b/DATA_goal/Junction_Flooding_243.xlsx
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -456,7 +456,7 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -655,103 +655,103 @@
         <v>44924.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44924.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.94</v>
+        <v>39.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.33</v>
+        <v>33.3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.96</v>
+        <v>49.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.53</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.2</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.03</v>
+        <v>20.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>209.75</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.44</v>
+        <v>44.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44924.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44924.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.69</v>
+        <v>46.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.91</v>
+        <v>39.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.23</v>
+        <v>62.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.59</v>
+        <v>25.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.41</v>
+        <v>24.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25</v>
+        <v>250.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.7</v>
+        <v>46.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.46</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.18</v>
+        <v>31.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.7</v>
+        <v>16.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.47</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.93</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.61</v>
+        <v>56.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_243.xlsx
+++ b/DATA_goal/Junction_Flooding_243.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44924.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.47</v>
+        <v>18.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.2</v>
+        <v>14.197</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.36</v>
+        <v>39.358</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.3</v>
+        <v>33.305</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.12</v>
+        <v>14.123</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.56</v>
+        <v>49.559</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.53</v>
+        <v>21.533</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.82</v>
+        <v>9.823</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.17</v>
+        <v>15.173</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.2</v>
+        <v>16.204</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.61</v>
+        <v>16.612</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.49</v>
+        <v>4.492</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.09</v>
+        <v>14.091</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.25</v>
+        <v>20.253</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.7</v>
+        <v>11.695</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>209.75</v>
+        <v>209.746</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.49</v>
+        <v>39.491</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.9</v>
+        <v>12.905</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.55</v>
+        <v>26.546</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.59</v>
+        <v>14.592</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.896</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.54</v>
+        <v>26.539</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.027</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.25</v>
+        <v>11.253</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.64</v>
+        <v>11.637</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>16.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.37</v>
+        <v>44.375</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.79</v>
+        <v>7.786</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.18</v>
+        <v>16.175</v>
       </c>
     </row>
     <row r="4">
@@ -863,43 +863,43 @@
         <v>44924.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.45</v>
+        <v>5.453</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.26</v>
+        <v>4.256</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.26</v>
+        <v>11.265</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.83</v>
+        <v>9.834</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.981</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.67</v>
+        <v>20.669</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.043</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.88</v>
+        <v>2.882</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>4.52</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.74</v>
+        <v>4.742</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.755</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.29</v>
+        <v>1.291</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>3.99</v>
@@ -908,43 +908,43 @@
         <v>5.91</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.367</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.43</v>
+        <v>55.429</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.56</v>
+        <v>11.557</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.79</v>
+        <v>7.787</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>4.4</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.551</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.54</v>
+        <v>10.538</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.95</v>
+        <v>2.949</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.64</v>
+        <v>3.639</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.24</v>
+        <v>3.236</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>4.96</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.84</v>
+        <v>18.838</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.369</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.56</v>
+        <v>4.563</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44924.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.41</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>73.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.68</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>36.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_243.xlsx
+++ b/DATA_goal/Junction_Flooding_243.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -471,7 +471,7 @@
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,103 +967,207 @@
         <v>44924.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.76</v>
+        <v>21.755</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.44</v>
+        <v>16.444</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.902</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.86</v>
+        <v>46.859</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.14</v>
+        <v>39.136</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.87</v>
+        <v>16.872</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.32</v>
+        <v>62.325</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.92</v>
+        <v>25.923</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.73</v>
+        <v>11.735</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.73</v>
+        <v>17.735</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.95</v>
+        <v>18.949</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.89</v>
+        <v>19.892</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.41</v>
+        <v>5.406</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.8</v>
+        <v>16.802</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.14</v>
+        <v>24.141</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>13.98</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.485</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.01</v>
+        <v>250.011</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.99</v>
+        <v>46.993</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.46</v>
+        <v>15.462</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.81</v>
+        <v>31.805</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.99</v>
+        <v>16.995</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.22</v>
+        <v>2.223</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.48</v>
+        <v>31.478</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.47</v>
+        <v>13.473</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.6</v>
+        <v>12.604</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.06</v>
+        <v>14.062</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.93</v>
+        <v>19.929</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.09</v>
+        <v>56.094</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.06</v>
+        <v>9.055999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.36</v>
+        <v>19.363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44924.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>278.68</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>52.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>36.26</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>21.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_243.xlsx
+++ b/DATA_goal/Junction_Flooding_243.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -471,7 +471,7 @@
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,207 +967,103 @@
         <v>44924.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.755</v>
+        <v>21.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.444</v>
+        <v>16.44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.859</v>
+        <v>46.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.136</v>
+        <v>39.14</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.872</v>
+        <v>16.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.325</v>
+        <v>62.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.923</v>
+        <v>25.92</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.735</v>
+        <v>11.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.735</v>
+        <v>17.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.949</v>
+        <v>18.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.892</v>
+        <v>19.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.406</v>
+        <v>5.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.802</v>
+        <v>16.8</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.141</v>
+        <v>24.14</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>13.98</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.485</v>
+        <v>0.49</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.011</v>
+        <v>250.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.993</v>
+        <v>46.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.462</v>
+        <v>15.46</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.805</v>
+        <v>31.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.995</v>
+        <v>16.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.223</v>
+        <v>2.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.478</v>
+        <v>31.48</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.473</v>
+        <v>13.47</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.604</v>
+        <v>12.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.062</v>
+        <v>14.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.929</v>
+        <v>19.93</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.094</v>
+        <v>56.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.055999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.363</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44924.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>52.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.41</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>73.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>26.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>278.68</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>52.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>35.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>36.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.42</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>21.56</v>
+        <v>19.36</v>
       </c>
     </row>
   </sheetData>
